--- a/notebooks/SEC61A1/input/SEC61A1_SCN11_individuals.xlsx
+++ b/notebooks/SEC61A1/input/SEC61A1_SCN11_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SEC61A1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE89B14B-FD23-154A-9123-206C1AB17C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE01BE6-60EF-8540-9B58-499C43C71875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="10540" windowWidth="31620" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="11320" windowWidth="31620" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>PMID</t>
   </si>
@@ -242,6 +242,60 @@
   </si>
   <si>
     <t>c.275A&gt;G</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>HP:0100806</t>
+  </si>
+  <si>
+    <t>P16Y</t>
+  </si>
+  <si>
+    <t>Increased proportion of plasmablasts</t>
+  </si>
+  <si>
+    <t>HP:0032128</t>
+  </si>
+  <si>
+    <t>Pleural empyema</t>
+  </si>
+  <si>
+    <t>HP:0011919</t>
+  </si>
+  <si>
+    <t>P7Y</t>
+  </si>
+  <si>
+    <t>HP:0009789</t>
+  </si>
+  <si>
+    <t>Cutaneous abscess</t>
+  </si>
+  <si>
+    <t>HP:0031292</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>HP:0002090</t>
+  </si>
+  <si>
+    <t>HP:0032154</t>
+  </si>
+  <si>
+    <t>Recurrent gingivitis</t>
+  </si>
+  <si>
+    <t>HP:0034284</t>
+  </si>
+  <si>
+    <t>Perianal abscess</t>
+  </si>
+  <si>
+    <t>Aphthous ulcer</t>
   </si>
 </sst>
 </file>
@@ -612,15 +666,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,28 +748,28 @@
         <v>57</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>67</v>
@@ -723,8 +777,32 @@
       <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -798,28 +876,28 @@
         <v>58</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>68</v>
@@ -827,8 +905,32 @@
       <c r="AH2" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="AI2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -887,19 +989,19 @@
         <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
         <v>54</v>
@@ -926,6 +1028,30 @@
         <v>69</v>
       </c>
       <c r="AH3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP3" t="s">
         <v>54</v>
       </c>
     </row>
